--- a/dat/climate/HKCM_areas.xlsx
+++ b/dat/climate/HKCM_areas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="12270" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13350" windowHeight="12270"/>
   </bookViews>
   <sheets>
     <sheet name="HK" sheetId="6" r:id="rId1"/>
@@ -483,8 +483,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M201"/>
+    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
+      <selection activeCell="M190" sqref="M190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,9 @@
       <c r="J2" s="5">
         <v>74</v>
       </c>
-      <c r="K2" s="5"/>
+      <c r="K2" s="5">
+        <v>22.75</v>
+      </c>
       <c r="L2" s="5">
         <v>100</v>
       </c>
@@ -596,7 +598,9 @@
       <c r="J3" s="7">
         <v>75</v>
       </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="7">
+        <v>4.5</v>
+      </c>
       <c r="L3" s="7">
         <v>100</v>
       </c>
@@ -633,7 +637,9 @@
       <c r="J4" s="5">
         <v>79</v>
       </c>
-      <c r="K4" s="5"/>
+      <c r="K4" s="5">
+        <v>198.75</v>
+      </c>
       <c r="L4" s="5">
         <v>110</v>
       </c>
@@ -670,7 +676,9 @@
       <c r="J5" s="7">
         <v>81</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="7">
+        <v>19</v>
+      </c>
       <c r="L5" s="7">
         <v>120</v>
       </c>
@@ -707,7 +715,9 @@
       <c r="J6" s="5">
         <v>81</v>
       </c>
-      <c r="K6" s="5"/>
+      <c r="K6" s="5">
+        <v>299.5</v>
+      </c>
       <c r="L6" s="5">
         <v>120</v>
       </c>
@@ -744,7 +754,9 @@
       <c r="J7" s="7">
         <v>82</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="7">
+        <v>174</v>
+      </c>
       <c r="L7" s="7">
         <v>120</v>
       </c>
@@ -781,7 +793,9 @@
       <c r="J8" s="5">
         <v>84</v>
       </c>
-      <c r="K8" s="5"/>
+      <c r="K8" s="5">
+        <v>265.5</v>
+      </c>
       <c r="L8" s="5">
         <v>130</v>
       </c>
@@ -818,7 +832,9 @@
       <c r="J9" s="5">
         <v>82</v>
       </c>
-      <c r="K9" s="5"/>
+      <c r="K9" s="5">
+        <v>308.5</v>
+      </c>
       <c r="L9" s="5">
         <v>110</v>
       </c>
@@ -855,7 +871,9 @@
       <c r="J10" s="7">
         <v>78</v>
       </c>
-      <c r="K10" s="7"/>
+      <c r="K10" s="7">
+        <v>592.25</v>
+      </c>
       <c r="L10" s="7">
         <v>110</v>
       </c>
@@ -892,7 +910,9 @@
       <c r="J11" s="5">
         <v>76</v>
       </c>
-      <c r="K11" s="5"/>
+      <c r="K11" s="5">
+        <v>156</v>
+      </c>
       <c r="L11" s="5">
         <v>100</v>
       </c>
@@ -929,7 +949,9 @@
       <c r="J12" s="7">
         <v>71</v>
       </c>
-      <c r="K12" s="7"/>
+      <c r="K12" s="7">
+        <v>18</v>
+      </c>
       <c r="L12" s="7">
         <v>100</v>
       </c>
@@ -966,7 +988,9 @@
       <c r="J13" s="5">
         <v>77</v>
       </c>
-      <c r="K13" s="5"/>
+      <c r="K13" s="5">
+        <v>54</v>
+      </c>
       <c r="L13" s="5">
         <v>100</v>
       </c>
@@ -1003,7 +1027,9 @@
       <c r="J14" s="7">
         <v>70</v>
       </c>
-      <c r="K14" s="7"/>
+      <c r="K14" s="7">
+        <v>20.25</v>
+      </c>
       <c r="L14" s="7">
         <v>100</v>
       </c>
@@ -1040,7 +1066,9 @@
       <c r="J15" s="5">
         <v>80</v>
       </c>
-      <c r="K15" s="5"/>
+      <c r="K15" s="5">
+        <v>14.75</v>
+      </c>
       <c r="L15" s="5">
         <v>110</v>
       </c>
@@ -1077,7 +1105,9 @@
       <c r="J16" s="5">
         <v>79</v>
       </c>
-      <c r="K16" s="5"/>
+      <c r="K16" s="5">
+        <v>59.75</v>
+      </c>
       <c r="L16" s="5">
         <v>100</v>
       </c>
@@ -1114,7 +1144,9 @@
       <c r="J17" s="7">
         <v>82</v>
       </c>
-      <c r="K17" s="7"/>
+      <c r="K17" s="7">
+        <v>85</v>
+      </c>
       <c r="L17" s="7">
         <v>110</v>
       </c>
@@ -1151,7 +1183,9 @@
       <c r="J18" s="5">
         <v>82</v>
       </c>
-      <c r="K18" s="5"/>
+      <c r="K18" s="5">
+        <v>337</v>
+      </c>
       <c r="L18" s="5">
         <v>120</v>
       </c>
@@ -1188,7 +1222,9 @@
       <c r="J19" s="7">
         <v>86</v>
       </c>
-      <c r="K19" s="7"/>
+      <c r="K19" s="7">
+        <v>458</v>
+      </c>
       <c r="L19" s="7">
         <v>130</v>
       </c>
@@ -1225,7 +1261,9 @@
       <c r="J20" s="5">
         <v>80</v>
       </c>
-      <c r="K20" s="5"/>
+      <c r="K20" s="5">
+        <v>73.75</v>
+      </c>
       <c r="L20" s="5">
         <v>120</v>
       </c>
@@ -1262,7 +1300,9 @@
       <c r="J21" s="7">
         <v>84</v>
       </c>
-      <c r="K21" s="7"/>
+      <c r="K21" s="7">
+        <v>342.75</v>
+      </c>
       <c r="L21" s="7">
         <v>120</v>
       </c>
@@ -1299,7 +1339,9 @@
       <c r="J22" s="5">
         <v>82</v>
       </c>
-      <c r="K22" s="5"/>
+      <c r="K22" s="5">
+        <v>363.25</v>
+      </c>
       <c r="L22" s="5">
         <v>110</v>
       </c>
@@ -1336,7 +1378,9 @@
       <c r="J23" s="5">
         <v>73</v>
       </c>
-      <c r="K23" s="5"/>
+      <c r="K23" s="5">
+        <v>31</v>
+      </c>
       <c r="L23" s="5">
         <v>110</v>
       </c>
@@ -1373,7 +1417,9 @@
       <c r="J24" s="7">
         <v>74</v>
       </c>
-      <c r="K24" s="7"/>
+      <c r="K24" s="7">
+        <v>82.75</v>
+      </c>
       <c r="L24" s="7">
         <v>100</v>
       </c>
@@ -1410,7 +1456,9 @@
       <c r="J25" s="5">
         <v>66</v>
       </c>
-      <c r="K25" s="5"/>
+      <c r="K25" s="5">
+        <v>0</v>
+      </c>
       <c r="L25" s="5">
         <v>100</v>
       </c>
@@ -1447,7 +1495,9 @@
       <c r="J26" s="7">
         <v>72</v>
       </c>
-      <c r="K26" s="7"/>
+      <c r="K26" s="7">
+        <v>36.5</v>
+      </c>
       <c r="L26" s="7">
         <v>100</v>
       </c>
@@ -1484,7 +1534,9 @@
       <c r="J27" s="5">
         <v>79</v>
       </c>
-      <c r="K27" s="5"/>
+      <c r="K27" s="5">
+        <v>45.5</v>
+      </c>
       <c r="L27" s="5">
         <v>100</v>
       </c>
@@ -1521,7 +1573,9 @@
       <c r="J28" s="7">
         <v>81</v>
       </c>
-      <c r="K28" s="7"/>
+      <c r="K28" s="7">
+        <v>91.75</v>
+      </c>
       <c r="L28" s="7">
         <v>110</v>
       </c>
@@ -1558,7 +1612,9 @@
       <c r="J29" s="5">
         <v>84</v>
       </c>
-      <c r="K29" s="5"/>
+      <c r="K29" s="5">
+        <v>159.75</v>
+      </c>
       <c r="L29" s="5">
         <v>120</v>
       </c>
@@ -1595,7 +1651,9 @@
       <c r="J30" s="5">
         <v>83</v>
       </c>
-      <c r="K30" s="5"/>
+      <c r="K30" s="5">
+        <v>138.5</v>
+      </c>
       <c r="L30" s="5">
         <v>130</v>
       </c>
@@ -1632,7 +1690,9 @@
       <c r="J31" s="7">
         <v>80</v>
       </c>
-      <c r="K31" s="7"/>
+      <c r="K31" s="7">
+        <v>109.25</v>
+      </c>
       <c r="L31" s="7">
         <v>120</v>
       </c>
@@ -1669,7 +1729,9 @@
       <c r="J32" s="5">
         <v>84</v>
       </c>
-      <c r="K32" s="5"/>
+      <c r="K32" s="5">
+        <v>326</v>
+      </c>
       <c r="L32" s="5">
         <v>110</v>
       </c>
@@ -1706,7 +1768,9 @@
       <c r="J33" s="7">
         <v>85</v>
       </c>
-      <c r="K33" s="7"/>
+      <c r="K33" s="7">
+        <v>387.25</v>
+      </c>
       <c r="L33" s="7">
         <v>130</v>
       </c>
@@ -1743,7 +1807,9 @@
       <c r="J34" s="5">
         <v>80</v>
       </c>
-      <c r="K34" s="5"/>
+      <c r="K34" s="5">
+        <v>165.75</v>
+      </c>
       <c r="L34" s="5">
         <v>120</v>
       </c>
@@ -1780,7 +1846,9 @@
       <c r="J35" s="7">
         <v>66</v>
       </c>
-      <c r="K35" s="7"/>
+      <c r="K35" s="7">
+        <v>8.25</v>
+      </c>
       <c r="L35" s="7">
         <v>110</v>
       </c>
@@ -1817,7 +1885,9 @@
       <c r="J36" s="5">
         <v>71</v>
       </c>
-      <c r="K36" s="5"/>
+      <c r="K36" s="5">
+        <v>0.5</v>
+      </c>
       <c r="L36" s="5">
         <v>110</v>
       </c>
@@ -1854,7 +1924,9 @@
       <c r="J37" s="5">
         <v>68</v>
       </c>
-      <c r="K37" s="5"/>
+      <c r="K37" s="5">
+        <v>0</v>
+      </c>
       <c r="L37" s="5">
         <v>100</v>
       </c>
@@ -1891,7 +1963,9 @@
       <c r="J38" s="7">
         <v>75</v>
       </c>
-      <c r="K38" s="7"/>
+      <c r="K38" s="7">
+        <v>4</v>
+      </c>
       <c r="L38" s="7">
         <v>100</v>
       </c>
@@ -1928,7 +2002,9 @@
       <c r="J39" s="5">
         <v>84</v>
       </c>
-      <c r="K39" s="5"/>
+      <c r="K39" s="5">
+        <v>24</v>
+      </c>
       <c r="L39" s="5">
         <v>110</v>
       </c>
@@ -1965,7 +2041,9 @@
       <c r="J40" s="7">
         <v>76</v>
       </c>
-      <c r="K40" s="7"/>
+      <c r="K40" s="7">
+        <v>47.25</v>
+      </c>
       <c r="L40" s="7">
         <v>110</v>
       </c>
@@ -2002,7 +2080,9 @@
       <c r="J41" s="5">
         <v>83</v>
       </c>
-      <c r="K41" s="5"/>
+      <c r="K41" s="5">
+        <v>36</v>
+      </c>
       <c r="L41" s="5">
         <v>130</v>
       </c>
@@ -2039,7 +2119,9 @@
       <c r="J42" s="7">
         <v>87</v>
       </c>
-      <c r="K42" s="7"/>
+      <c r="K42" s="7">
+        <v>555.75</v>
+      </c>
       <c r="L42" s="7">
         <v>120</v>
       </c>
@@ -2076,7 +2158,9 @@
       <c r="J43" s="5">
         <v>88</v>
       </c>
-      <c r="K43" s="5"/>
+      <c r="K43" s="5">
+        <v>696</v>
+      </c>
       <c r="L43" s="5">
         <v>110</v>
       </c>
@@ -2113,7 +2197,9 @@
       <c r="J44" s="5">
         <v>83</v>
       </c>
-      <c r="K44" s="5"/>
+      <c r="K44" s="5">
+        <v>287</v>
+      </c>
       <c r="L44" s="5"/>
       <c r="M44" s="5">
         <v>8.4</v>
@@ -2148,7 +2234,9 @@
       <c r="J45" s="7">
         <v>87</v>
       </c>
-      <c r="K45" s="7"/>
+      <c r="K45" s="7">
+        <v>767</v>
+      </c>
       <c r="L45" s="7"/>
       <c r="M45" s="7">
         <v>9.5</v>
@@ -2183,7 +2271,9 @@
       <c r="J46" s="5">
         <v>80</v>
       </c>
-      <c r="K46" s="5"/>
+      <c r="K46" s="5">
+        <v>284</v>
+      </c>
       <c r="L46" s="5">
         <v>200</v>
       </c>
@@ -2220,7 +2310,9 @@
       <c r="J47" s="7">
         <v>71</v>
       </c>
-      <c r="K47" s="7"/>
+      <c r="K47" s="7">
+        <v>15.75</v>
+      </c>
       <c r="L47" s="7">
         <v>100</v>
       </c>
@@ -2257,7 +2349,9 @@
       <c r="J48" s="5">
         <v>72</v>
       </c>
-      <c r="K48" s="5"/>
+      <c r="K48" s="5">
+        <v>0.75</v>
+      </c>
       <c r="L48" s="5">
         <v>100</v>
       </c>
@@ -2294,7 +2388,9 @@
       <c r="J49" s="7">
         <v>56</v>
       </c>
-      <c r="K49" s="7"/>
+      <c r="K49" s="7">
+        <v>9</v>
+      </c>
       <c r="L49" s="7">
         <v>100</v>
       </c>
@@ -2331,7 +2427,9 @@
       <c r="J50" s="5">
         <v>72</v>
       </c>
-      <c r="K50" s="5"/>
+      <c r="K50" s="5">
+        <v>16.25</v>
+      </c>
       <c r="L50" s="5">
         <v>100</v>
       </c>
@@ -2368,7 +2466,9 @@
       <c r="J51" s="5">
         <v>75</v>
       </c>
-      <c r="K51" s="5"/>
+      <c r="K51" s="5">
+        <v>37.5</v>
+      </c>
       <c r="L51" s="5">
         <v>110</v>
       </c>
@@ -2405,7 +2505,9 @@
       <c r="J52" s="7">
         <v>78</v>
       </c>
-      <c r="K52" s="7"/>
+      <c r="K52" s="7">
+        <v>52.5</v>
+      </c>
       <c r="L52" s="7">
         <v>100</v>
       </c>
@@ -2442,7 +2544,9 @@
       <c r="J53" s="5">
         <v>82</v>
       </c>
-      <c r="K53" s="5"/>
+      <c r="K53" s="5">
+        <v>129.75</v>
+      </c>
       <c r="L53" s="5">
         <v>120</v>
       </c>
@@ -2479,7 +2583,9 @@
       <c r="J54" s="7">
         <v>83</v>
       </c>
-      <c r="K54" s="7"/>
+      <c r="K54" s="7">
+        <v>335.25</v>
+      </c>
       <c r="L54" s="7">
         <v>120</v>
       </c>
@@ -2516,7 +2622,9 @@
       <c r="J55" s="5">
         <v>86</v>
       </c>
-      <c r="K55" s="5"/>
+      <c r="K55" s="5">
+        <v>281.75</v>
+      </c>
       <c r="L55" s="5">
         <v>120</v>
       </c>
@@ -2553,7 +2661,9 @@
       <c r="J56" s="7">
         <v>82</v>
       </c>
-      <c r="K56" s="7"/>
+      <c r="K56" s="7">
+        <v>481.75</v>
+      </c>
       <c r="L56" s="7">
         <v>120</v>
       </c>
@@ -2590,7 +2700,9 @@
       <c r="J57" s="5">
         <v>81</v>
       </c>
-      <c r="K57" s="5"/>
+      <c r="K57" s="5">
+        <v>178</v>
+      </c>
       <c r="L57" s="5">
         <v>120</v>
       </c>
@@ -2627,7 +2739,9 @@
       <c r="J58" s="5">
         <v>76</v>
       </c>
-      <c r="K58" s="5"/>
+      <c r="K58" s="5">
+        <v>382.5</v>
+      </c>
       <c r="L58" s="5">
         <v>110</v>
       </c>
@@ -2664,7 +2778,9 @@
       <c r="J59" s="7">
         <v>73</v>
       </c>
-      <c r="K59" s="7"/>
+      <c r="K59" s="7">
+        <v>7</v>
+      </c>
       <c r="L59" s="7">
         <v>110</v>
       </c>
@@ -2701,7 +2817,9 @@
       <c r="J60" s="5">
         <v>73</v>
       </c>
-      <c r="K60" s="5"/>
+      <c r="K60" s="5">
+        <v>84</v>
+      </c>
       <c r="L60" s="5">
         <v>100</v>
       </c>
@@ -2738,7 +2856,9 @@
       <c r="J61" s="7">
         <v>65</v>
       </c>
-      <c r="K61" s="7"/>
+      <c r="K61" s="7">
+        <v>25.5</v>
+      </c>
       <c r="L61" s="7">
         <v>100</v>
       </c>
@@ -2775,7 +2895,9 @@
       <c r="J62" s="5">
         <v>66</v>
       </c>
-      <c r="K62" s="5"/>
+      <c r="K62" s="5">
+        <v>31.75</v>
+      </c>
       <c r="L62" s="5">
         <v>100</v>
       </c>
@@ -2812,7 +2934,9 @@
       <c r="J63" s="7">
         <v>74</v>
       </c>
-      <c r="K63" s="7"/>
+      <c r="K63" s="7">
+        <v>13.75</v>
+      </c>
       <c r="L63" s="7">
         <v>110</v>
       </c>
@@ -2849,7 +2973,9 @@
       <c r="J64" s="5">
         <v>81</v>
       </c>
-      <c r="K64" s="5"/>
+      <c r="K64" s="5">
+        <v>24</v>
+      </c>
       <c r="L64" s="5">
         <v>110</v>
       </c>
@@ -2886,7 +3012,9 @@
       <c r="J65" s="5">
         <v>79</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="5">
+        <v>134.25</v>
+      </c>
       <c r="L65" s="5">
         <v>120</v>
       </c>
@@ -2923,7 +3051,9 @@
       <c r="J66" s="7">
         <v>81</v>
       </c>
-      <c r="K66" s="7"/>
+      <c r="K66" s="7">
+        <v>329.5</v>
+      </c>
       <c r="L66" s="7">
         <v>120</v>
       </c>
@@ -2960,7 +3090,9 @@
       <c r="J67" s="5">
         <v>85</v>
       </c>
-      <c r="K67" s="5"/>
+      <c r="K67" s="5">
+        <v>491</v>
+      </c>
       <c r="L67" s="5">
         <v>140</v>
       </c>
@@ -2997,7 +3129,9 @@
       <c r="J68" s="7">
         <v>81</v>
       </c>
-      <c r="K68" s="7"/>
+      <c r="K68" s="7">
+        <v>69</v>
+      </c>
       <c r="L68" s="7">
         <v>130</v>
       </c>
@@ -3034,7 +3168,9 @@
       <c r="J69" s="5">
         <v>84</v>
       </c>
-      <c r="K69" s="5"/>
+      <c r="K69" s="5">
+        <v>422</v>
+      </c>
       <c r="L69" s="5">
         <v>120</v>
       </c>
@@ -3071,7 +3207,9 @@
       <c r="J70" s="7">
         <v>74</v>
       </c>
-      <c r="K70" s="7"/>
+      <c r="K70" s="7">
+        <v>112.75</v>
+      </c>
       <c r="L70" s="7">
         <v>110</v>
       </c>
@@ -3108,7 +3246,9 @@
       <c r="J71" s="5">
         <v>70</v>
       </c>
-      <c r="K71" s="5"/>
+      <c r="K71" s="5">
+        <v>45.75</v>
+      </c>
       <c r="L71" s="5">
         <v>100</v>
       </c>
@@ -3145,7 +3285,9 @@
       <c r="J72" s="5">
         <v>61</v>
       </c>
-      <c r="K72" s="5"/>
+      <c r="K72" s="5">
+        <v>2.5</v>
+      </c>
       <c r="L72" s="5">
         <v>100</v>
       </c>
@@ -3182,7 +3324,9 @@
       <c r="J73" s="7">
         <v>70</v>
       </c>
-      <c r="K73" s="7"/>
+      <c r="K73" s="7">
+        <v>19</v>
+      </c>
       <c r="L73" s="7">
         <v>100</v>
       </c>
@@ -3219,7 +3363,9 @@
       <c r="J74" s="5">
         <v>71</v>
       </c>
-      <c r="K74" s="5"/>
+      <c r="K74" s="5">
+        <v>24.25</v>
+      </c>
       <c r="L74" s="5">
         <v>100</v>
       </c>
@@ -3256,7 +3402,9 @@
       <c r="J75" s="7">
         <v>66</v>
       </c>
-      <c r="K75" s="7"/>
+      <c r="K75" s="7">
+        <v>22.75</v>
+      </c>
       <c r="L75" s="7">
         <v>110</v>
       </c>
@@ -3293,7 +3441,9 @@
       <c r="J76" s="5">
         <v>72</v>
       </c>
-      <c r="K76" s="5"/>
+      <c r="K76" s="5">
+        <v>76.25</v>
+      </c>
       <c r="L76" s="5">
         <v>110</v>
       </c>
@@ -3330,7 +3480,9 @@
       <c r="J77" s="7">
         <v>82</v>
       </c>
-      <c r="K77" s="7"/>
+      <c r="K77" s="7">
+        <v>183.75</v>
+      </c>
       <c r="L77" s="7">
         <v>120</v>
       </c>
@@ -3367,7 +3519,9 @@
       <c r="J78" s="5">
         <v>81</v>
       </c>
-      <c r="K78" s="5"/>
+      <c r="K78" s="5">
+        <v>143.75</v>
+      </c>
       <c r="L78" s="5">
         <v>110</v>
       </c>
@@ -3404,7 +3558,9 @@
       <c r="J79" s="5">
         <v>89</v>
       </c>
-      <c r="K79" s="5"/>
+      <c r="K79" s="5">
+        <v>1174</v>
+      </c>
       <c r="L79" s="5">
         <v>130</v>
       </c>
@@ -3441,7 +3597,9 @@
       <c r="J80" s="7">
         <v>85</v>
       </c>
-      <c r="K80" s="7"/>
+      <c r="K80" s="7">
+        <v>450.75</v>
+      </c>
       <c r="L80" s="7">
         <v>140</v>
       </c>
@@ -3478,7 +3636,9 @@
       <c r="J81" s="5">
         <v>82</v>
       </c>
-      <c r="K81" s="5"/>
+      <c r="K81" s="5">
+        <v>251.25</v>
+      </c>
       <c r="L81" s="5">
         <v>130</v>
       </c>
@@ -3515,7 +3675,9 @@
       <c r="J82" s="7">
         <v>76</v>
       </c>
-      <c r="K82" s="7"/>
+      <c r="K82" s="7">
+        <v>111.25</v>
+      </c>
       <c r="L82" s="7">
         <v>110</v>
       </c>
@@ -3552,7 +3714,9 @@
       <c r="J83" s="5">
         <v>75</v>
       </c>
-      <c r="K83" s="5"/>
+      <c r="K83" s="5">
+        <v>88.75</v>
+      </c>
       <c r="L83" s="5">
         <v>110</v>
       </c>
@@ -3589,7 +3753,9 @@
       <c r="J84" s="7">
         <v>61</v>
       </c>
-      <c r="K84" s="7"/>
+      <c r="K84" s="7">
+        <v>8.75</v>
+      </c>
       <c r="L84" s="7">
         <v>100</v>
       </c>
@@ -3627,7 +3793,7 @@
         <v>60</v>
       </c>
       <c r="K85" s="5">
-        <v>9.5</v>
+        <v>9.375</v>
       </c>
       <c r="L85" s="5">
         <v>120</v>
@@ -3705,7 +3871,7 @@
         <v>78</v>
       </c>
       <c r="K87" s="7">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="L87" s="7">
         <v>130</v>
@@ -3744,7 +3910,7 @@
         <v>81</v>
       </c>
       <c r="K88" s="5">
-        <v>133.5</v>
+        <v>130.875</v>
       </c>
       <c r="L88" s="5">
         <v>110</v>
@@ -3783,7 +3949,7 @@
         <v>76</v>
       </c>
       <c r="K89" s="7">
-        <v>94.5</v>
+        <v>103.25</v>
       </c>
       <c r="L89" s="7">
         <v>110</v>
@@ -3822,7 +3988,7 @@
         <v>78</v>
       </c>
       <c r="K90" s="5">
-        <v>188</v>
+        <v>187.75</v>
       </c>
       <c r="L90" s="5">
         <v>110</v>
@@ -3861,7 +4027,7 @@
         <v>86</v>
       </c>
       <c r="K91" s="7">
-        <v>324</v>
+        <v>350.75</v>
       </c>
       <c r="L91" s="7">
         <v>130</v>
@@ -3900,7 +4066,7 @@
         <v>83</v>
       </c>
       <c r="K92" s="5">
-        <v>423</v>
+        <v>384.75</v>
       </c>
       <c r="L92" s="5">
         <v>110</v>
@@ -3939,7 +4105,7 @@
         <v>83</v>
       </c>
       <c r="K93" s="5">
-        <v>351</v>
+        <v>287.375</v>
       </c>
       <c r="L93" s="5">
         <v>140</v>
@@ -3978,7 +4144,7 @@
         <v>77</v>
       </c>
       <c r="K94" s="7">
-        <v>628.5</v>
+        <v>539.625</v>
       </c>
       <c r="L94" s="7">
         <v>100</v>
@@ -4017,7 +4183,7 @@
         <v>73</v>
       </c>
       <c r="K95" s="5">
-        <v>34.5</v>
+        <v>23.375</v>
       </c>
       <c r="L95" s="5">
         <v>100</v>
@@ -4056,7 +4222,7 @@
         <v>69</v>
       </c>
       <c r="K96" s="7">
-        <v>40</v>
+        <v>56.5</v>
       </c>
       <c r="L96" s="7">
         <v>90</v>
@@ -4095,7 +4261,7 @@
         <v>74</v>
       </c>
       <c r="K97" s="5">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L97" s="5">
         <v>90</v>
@@ -4134,7 +4300,7 @@
         <v>74</v>
       </c>
       <c r="K98" s="7">
-        <v>25.5</v>
+        <v>24.625</v>
       </c>
       <c r="L98" s="7">
         <v>90</v>
@@ -4173,7 +4339,7 @@
         <v>85</v>
       </c>
       <c r="K99" s="5">
-        <v>81.5</v>
+        <v>85.5</v>
       </c>
       <c r="L99" s="5">
         <v>90</v>
@@ -4212,7 +4378,7 @@
         <v>75</v>
       </c>
       <c r="K100" s="5">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="L100" s="5">
         <v>100</v>
@@ -4251,7 +4417,7 @@
         <v>82</v>
       </c>
       <c r="K101" s="7">
-        <v>85</v>
+        <v>91.75</v>
       </c>
       <c r="L101" s="7">
         <v>90</v>
@@ -4290,7 +4456,7 @@
         <v>84</v>
       </c>
       <c r="K102" s="5">
-        <v>199.5</v>
+        <v>185.625</v>
       </c>
       <c r="L102" s="5">
         <v>100</v>
@@ -4329,7 +4495,7 @@
         <v>88</v>
       </c>
       <c r="K103" s="7">
-        <v>418</v>
+        <v>446.5</v>
       </c>
       <c r="L103" s="7">
         <v>140</v>
@@ -4368,7 +4534,7 @@
         <v>84</v>
       </c>
       <c r="K104" s="5">
-        <v>434.5</v>
+        <v>406.5</v>
       </c>
       <c r="L104" s="5">
         <v>250</v>
@@ -4407,7 +4573,7 @@
         <v>82</v>
       </c>
       <c r="K105" s="7">
-        <v>279.5</v>
+        <v>251</v>
       </c>
       <c r="L105" s="7">
         <v>100</v>
@@ -4446,7 +4612,7 @@
         <v>83</v>
       </c>
       <c r="K106" s="5">
-        <v>658.5</v>
+        <v>643.875</v>
       </c>
       <c r="L106" s="5">
         <v>100</v>
@@ -4485,7 +4651,7 @@
         <v>67</v>
       </c>
       <c r="K107" s="9">
-        <v>20.5</v>
+        <v>33.25</v>
       </c>
       <c r="L107" s="9">
         <v>90</v>
@@ -4524,7 +4690,7 @@
         <v>71</v>
       </c>
       <c r="K108" s="11">
-        <v>37</v>
+        <v>35.75</v>
       </c>
       <c r="L108" s="11">
         <v>90</v>
@@ -4563,7 +4729,7 @@
         <v>64</v>
       </c>
       <c r="K109" s="9">
-        <v>21.5</v>
+        <v>18.25</v>
       </c>
       <c r="L109" s="9">
         <v>90</v>
@@ -4602,7 +4768,7 @@
         <v>63</v>
       </c>
       <c r="K110" s="5">
-        <v>5</v>
+        <v>4.125</v>
       </c>
       <c r="L110" s="5">
         <v>80</v>
@@ -4641,7 +4807,7 @@
         <v>75</v>
       </c>
       <c r="K111" s="7">
-        <v>22.5</v>
+        <v>21.375</v>
       </c>
       <c r="L111" s="7">
         <v>80</v>
@@ -4680,7 +4846,7 @@
         <v>68</v>
       </c>
       <c r="K112" s="5">
-        <v>23.5</v>
+        <v>22.375</v>
       </c>
       <c r="L112" s="5">
         <v>80</v>
@@ -4719,7 +4885,7 @@
         <v>77</v>
       </c>
       <c r="K113" s="7">
-        <v>33.5</v>
+        <v>37.875</v>
       </c>
       <c r="L113" s="7">
         <v>90</v>
@@ -4758,7 +4924,7 @@
         <v>82</v>
       </c>
       <c r="K114" s="5">
-        <v>166</v>
+        <v>169.75</v>
       </c>
       <c r="L114" s="5">
         <v>130</v>
@@ -4797,7 +4963,7 @@
         <v>85</v>
       </c>
       <c r="K115" s="7">
-        <v>412.5</v>
+        <v>407</v>
       </c>
       <c r="L115" s="7">
         <v>130</v>
@@ -4836,7 +5002,7 @@
         <v>83</v>
       </c>
       <c r="K116" s="5">
-        <v>198.5</v>
+        <v>214.875</v>
       </c>
       <c r="L116" s="5">
         <v>240</v>
@@ -4875,7 +5041,7 @@
         <v>80</v>
       </c>
       <c r="K117" s="7">
-        <v>184</v>
+        <v>146.5</v>
       </c>
       <c r="L117" s="7">
         <v>230</v>
@@ -4914,7 +5080,7 @@
         <v>75</v>
       </c>
       <c r="K118" s="5">
-        <v>150</v>
+        <v>140.75</v>
       </c>
       <c r="L118" s="5">
         <v>90</v>
@@ -4953,7 +5119,7 @@
         <v>74</v>
       </c>
       <c r="K119" s="7">
-        <v>151.5</v>
+        <v>141.25</v>
       </c>
       <c r="L119" s="7">
         <v>90</v>
@@ -4992,7 +5158,7 @@
         <v>71</v>
       </c>
       <c r="K120" s="5">
-        <v>94</v>
+        <v>94.25</v>
       </c>
       <c r="L120" s="5">
         <v>90</v>
@@ -5031,7 +5197,7 @@
         <v>59</v>
       </c>
       <c r="K121" s="7">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="L121" s="7">
         <v>80</v>
@@ -5070,7 +5236,7 @@
         <v>77</v>
       </c>
       <c r="K122" s="5">
-        <v>37</v>
+        <v>36.75</v>
       </c>
       <c r="L122" s="5">
         <v>80</v>
@@ -5109,7 +5275,7 @@
         <v>77</v>
       </c>
       <c r="K123" s="7">
-        <v>27</v>
+        <v>30.625</v>
       </c>
       <c r="L123" s="7">
         <v>80</v>
@@ -5148,7 +5314,7 @@
         <v>76</v>
       </c>
       <c r="K124" s="5">
-        <v>20.5</v>
+        <v>15.625</v>
       </c>
       <c r="L124" s="5">
         <v>90</v>
@@ -5187,7 +5353,7 @@
         <v>84</v>
       </c>
       <c r="K125" s="7">
-        <v>269</v>
+        <v>285.625</v>
       </c>
       <c r="L125" s="7">
         <v>90</v>
@@ -5226,7 +5392,7 @@
         <v>84</v>
       </c>
       <c r="K126" s="5">
-        <v>342</v>
+        <v>333.25</v>
       </c>
       <c r="L126" s="5">
         <v>90</v>
@@ -5265,7 +5431,7 @@
         <v>82</v>
       </c>
       <c r="K127" s="7">
-        <v>243</v>
+        <v>224.375</v>
       </c>
       <c r="L127" s="7">
         <v>100</v>
@@ -5304,7 +5470,7 @@
         <v>82</v>
       </c>
       <c r="K128" s="5">
-        <v>411.5</v>
+        <v>375</v>
       </c>
       <c r="L128" s="5">
         <v>130</v>
@@ -5343,7 +5509,7 @@
         <v>79</v>
       </c>
       <c r="K129" s="7">
-        <v>178.5</v>
+        <v>167.75</v>
       </c>
       <c r="L129" s="7">
         <v>230</v>
@@ -5382,7 +5548,7 @@
         <v>74</v>
       </c>
       <c r="K130" s="5">
-        <v>214.5</v>
+        <v>195</v>
       </c>
       <c r="L130" s="5">
         <v>90</v>
@@ -5421,7 +5587,7 @@
         <v>71</v>
       </c>
       <c r="K131" s="7">
-        <v>51</v>
+        <v>43.75</v>
       </c>
       <c r="L131" s="7">
         <v>90</v>
@@ -5460,7 +5626,7 @@
         <v>77</v>
       </c>
       <c r="K132" s="5">
-        <v>42</v>
+        <v>51.75</v>
       </c>
       <c r="L132" s="5">
         <v>90</v>
@@ -5499,7 +5665,7 @@
         <v>72</v>
       </c>
       <c r="K133" s="7">
-        <v>51</v>
+        <v>47.25</v>
       </c>
       <c r="L133" s="7">
         <v>90</v>
@@ -5538,7 +5704,7 @@
         <v>67</v>
       </c>
       <c r="K134" s="5">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="L134" s="5">
         <v>80</v>
@@ -5577,7 +5743,7 @@
         <v>77</v>
       </c>
       <c r="K135" s="7">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="L135" s="7">
         <v>90</v>
@@ -5616,7 +5782,7 @@
         <v>77</v>
       </c>
       <c r="K136" s="5">
-        <v>151</v>
+        <v>130.875</v>
       </c>
       <c r="L136" s="5">
         <v>90</v>
@@ -5655,7 +5821,7 @@
         <v>82</v>
       </c>
       <c r="K137" s="7">
-        <v>172.5</v>
+        <v>169.125</v>
       </c>
       <c r="L137" s="7">
         <v>90</v>
@@ -5694,7 +5860,7 @@
         <v>87</v>
       </c>
       <c r="K138" s="5">
-        <v>417</v>
+        <v>391.25</v>
       </c>
       <c r="L138" s="5">
         <v>130</v>
@@ -5733,7 +5899,7 @@
         <v>84</v>
       </c>
       <c r="K139" s="7">
-        <v>375</v>
+        <v>343.875</v>
       </c>
       <c r="L139" s="7">
         <v>100</v>
@@ -5772,7 +5938,7 @@
         <v>84</v>
       </c>
       <c r="K140" s="5">
-        <v>477</v>
+        <v>426.375</v>
       </c>
       <c r="L140" s="5">
         <v>90</v>
@@ -5811,7 +5977,7 @@
         <v>83</v>
       </c>
       <c r="K141" s="7">
-        <v>404</v>
+        <v>341.5</v>
       </c>
       <c r="L141" s="7">
         <v>90</v>
@@ -5850,7 +6016,7 @@
         <v>77</v>
       </c>
       <c r="K142" s="5">
-        <v>374</v>
+        <v>341.5</v>
       </c>
       <c r="L142" s="5">
         <v>90</v>
@@ -5889,7 +6055,7 @@
         <v>65</v>
       </c>
       <c r="K143" s="7">
-        <v>1</v>
+        <v>1.375</v>
       </c>
       <c r="L143" s="7">
         <v>90</v>
@@ -5928,7 +6094,7 @@
         <v>65</v>
       </c>
       <c r="K144" s="5">
-        <v>64.5</v>
+        <v>59.625</v>
       </c>
       <c r="L144" s="5">
         <v>90</v>
@@ -5967,7 +6133,7 @@
         <v>55</v>
       </c>
       <c r="K145" s="7">
-        <v>79</v>
+        <v>73.875</v>
       </c>
       <c r="L145" s="7">
         <v>80</v>
@@ -6006,7 +6172,7 @@
         <v>60</v>
       </c>
       <c r="K146" s="5">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L146" s="5">
         <v>80</v>
@@ -6045,7 +6211,7 @@
         <v>74</v>
       </c>
       <c r="K147" s="7">
-        <v>37</v>
+        <v>35.25</v>
       </c>
       <c r="L147" s="7">
         <v>80</v>
@@ -6084,7 +6250,7 @@
         <v>77</v>
       </c>
       <c r="K148" s="5">
-        <v>159</v>
+        <v>155.625</v>
       </c>
       <c r="L148" s="5">
         <v>80</v>
@@ -6123,7 +6289,7 @@
         <v>81</v>
       </c>
       <c r="K149" s="7">
-        <v>109.5</v>
+        <v>121.25</v>
       </c>
       <c r="L149" s="7">
         <v>90</v>
@@ -6162,7 +6328,7 @@
         <v>87</v>
       </c>
       <c r="K150" s="5">
-        <v>781</v>
+        <v>738.625</v>
       </c>
       <c r="L150" s="5">
         <v>90</v>
@@ -6201,7 +6367,7 @@
         <v>82</v>
       </c>
       <c r="K151" s="7">
-        <v>409.5</v>
+        <v>402.5</v>
       </c>
       <c r="L151" s="7">
         <v>120</v>
@@ -6240,7 +6406,7 @@
         <v>81</v>
       </c>
       <c r="K152" s="5">
-        <v>233.5</v>
+        <v>225.5</v>
       </c>
       <c r="L152" s="5">
         <v>240</v>
@@ -6279,7 +6445,7 @@
         <v>83</v>
       </c>
       <c r="K153" s="7">
-        <v>487.5</v>
+        <v>511.625</v>
       </c>
       <c r="L153" s="7">
         <v>230</v>
@@ -6318,7 +6484,7 @@
         <v>79</v>
       </c>
       <c r="K154" s="5">
-        <v>173</v>
+        <v>134.875</v>
       </c>
       <c r="L154" s="5">
         <v>130</v>
@@ -6357,7 +6523,7 @@
         <v>69</v>
       </c>
       <c r="K155" s="7">
-        <v>79</v>
+        <v>109.875</v>
       </c>
       <c r="L155" s="7">
         <v>100</v>
@@ -6396,7 +6562,7 @@
         <v>74</v>
       </c>
       <c r="K156" s="5">
-        <v>47.5</v>
+        <v>54.5</v>
       </c>
       <c r="L156" s="5">
         <v>90</v>
@@ -6435,7 +6601,7 @@
         <v>61</v>
       </c>
       <c r="K157" s="7">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="L157" s="7">
         <v>90</v>
@@ -6474,7 +6640,7 @@
         <v>67</v>
       </c>
       <c r="K158" s="5">
-        <v>39</v>
+        <v>37.125</v>
       </c>
       <c r="L158" s="5">
         <v>80</v>
@@ -6513,7 +6679,7 @@
         <v>73</v>
       </c>
       <c r="K159" s="7">
-        <v>25</v>
+        <v>25.625</v>
       </c>
       <c r="L159" s="7">
         <v>80</v>
@@ -6552,7 +6718,7 @@
         <v>80</v>
       </c>
       <c r="K160" s="5">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="L160" s="5">
         <v>130</v>
@@ -6591,7 +6757,7 @@
         <v>77</v>
       </c>
       <c r="K161" s="7">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L161" s="7">
         <v>130</v>
@@ -6630,7 +6796,7 @@
         <v>88</v>
       </c>
       <c r="K162" s="5">
-        <v>457.5</v>
+        <v>476.375</v>
       </c>
       <c r="L162" s="5">
         <v>120</v>
@@ -6669,7 +6835,7 @@
         <v>83</v>
       </c>
       <c r="K163" s="7">
-        <v>304.5</v>
+        <v>195</v>
       </c>
       <c r="L163" s="7">
         <v>230</v>
@@ -6708,7 +6874,7 @@
         <v>82</v>
       </c>
       <c r="K164" s="5">
-        <v>477</v>
+        <v>436.875</v>
       </c>
       <c r="L164" s="5">
         <v>130</v>
@@ -6747,7 +6913,7 @@
         <v>81</v>
       </c>
       <c r="K165" s="7">
-        <v>153.5</v>
+        <v>172.375</v>
       </c>
       <c r="L165" s="7">
         <v>130</v>
@@ -6786,7 +6952,7 @@
         <v>76</v>
       </c>
       <c r="K166" s="5">
-        <v>103.5</v>
+        <v>114</v>
       </c>
       <c r="L166" s="5">
         <v>90</v>
@@ -6825,7 +6991,7 @@
         <v>76</v>
       </c>
       <c r="K167" s="7">
-        <v>149.5</v>
+        <v>126.5</v>
       </c>
       <c r="L167" s="7">
         <v>90</v>
@@ -6864,7 +7030,7 @@
         <v>75</v>
       </c>
       <c r="K168" s="5">
-        <v>16</v>
+        <v>22.75</v>
       </c>
       <c r="L168" s="5">
         <v>90</v>
@@ -6903,7 +7069,7 @@
         <v>72</v>
       </c>
       <c r="K169" s="7">
-        <v>66</v>
+        <v>63.375</v>
       </c>
       <c r="L169" s="7">
         <v>80</v>
@@ -6942,7 +7108,7 @@
         <v>77</v>
       </c>
       <c r="K170" s="5">
-        <v>197</v>
+        <v>207.25</v>
       </c>
       <c r="L170" s="5">
         <v>80</v>
@@ -6981,7 +7147,7 @@
         <v>68</v>
       </c>
       <c r="K171" s="7">
-        <v>22</v>
+        <v>23.5</v>
       </c>
       <c r="L171" s="7">
         <v>80</v>
@@ -7020,7 +7186,7 @@
         <v>79</v>
       </c>
       <c r="K172" s="5">
-        <v>166.5</v>
+        <v>168</v>
       </c>
       <c r="L172" s="5">
         <v>80</v>
@@ -7059,7 +7225,7 @@
         <v>88</v>
       </c>
       <c r="K173" s="7">
-        <v>239.5</v>
+        <v>228</v>
       </c>
       <c r="L173" s="7">
         <v>130</v>
@@ -7098,7 +7264,7 @@
         <v>84</v>
       </c>
       <c r="K174" s="5">
-        <v>173.5</v>
+        <v>180.25</v>
       </c>
       <c r="L174" s="5">
         <v>90</v>
@@ -7137,7 +7303,7 @@
         <v>85</v>
       </c>
       <c r="K175" s="7">
-        <v>390.5</v>
+        <v>356.125</v>
       </c>
       <c r="L175" s="7">
         <v>130</v>
@@ -7176,7 +7342,7 @@
         <v>81</v>
       </c>
       <c r="K176" s="5">
-        <v>194</v>
+        <v>202.125</v>
       </c>
       <c r="L176" s="5">
         <v>230</v>
@@ -7215,7 +7381,7 @@
         <v>84</v>
       </c>
       <c r="K177" s="7">
-        <v>465</v>
+        <v>457.25</v>
       </c>
       <c r="L177" s="7">
         <v>120</v>
@@ -7254,7 +7420,7 @@
         <v>79</v>
       </c>
       <c r="K178" s="5">
-        <v>294</v>
+        <v>311.75</v>
       </c>
       <c r="L178" s="5">
         <v>80</v>
@@ -7293,7 +7459,7 @@
         <v>77</v>
       </c>
       <c r="K179" s="7">
-        <v>591.5</v>
+        <v>533.125</v>
       </c>
       <c r="L179" s="7">
         <v>340</v>
@@ -7332,7 +7498,7 @@
         <v>76</v>
       </c>
       <c r="K180" s="5">
-        <v>136.5</v>
+        <v>131.5</v>
       </c>
       <c r="L180" s="5">
         <v>70</v>
@@ -7371,7 +7537,7 @@
         <v>66</v>
       </c>
       <c r="K181" s="7">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="L181" s="7">
         <v>70</v>
@@ -7410,7 +7576,7 @@
         <v>77</v>
       </c>
       <c r="K182" s="5">
-        <v>14</v>
+        <v>9.625</v>
       </c>
       <c r="L182" s="5">
         <v>70</v>
@@ -7449,7 +7615,7 @@
         <v>69</v>
       </c>
       <c r="K183" s="7">
-        <v>15.5</v>
+        <v>17.625</v>
       </c>
       <c r="L183" s="7">
         <v>70</v>
@@ -7488,7 +7654,7 @@
         <v>75</v>
       </c>
       <c r="K184" s="5">
-        <v>40</v>
+        <v>40.625</v>
       </c>
       <c r="L184" s="5">
         <v>70</v>
@@ -7527,7 +7693,7 @@
         <v>81</v>
       </c>
       <c r="K185" s="7">
-        <v>72.5</v>
+        <v>74</v>
       </c>
       <c r="L185" s="7">
         <v>70</v>
@@ -7566,7 +7732,7 @@
         <v>86</v>
       </c>
       <c r="K186" s="5">
-        <v>299</v>
+        <v>280.125</v>
       </c>
       <c r="L186" s="5">
         <v>120</v>
@@ -7605,7 +7771,7 @@
         <v>92</v>
       </c>
       <c r="K187" s="7">
-        <v>646.5</v>
+        <v>635</v>
       </c>
       <c r="L187" s="7">
         <v>120</v>
@@ -7644,7 +7810,7 @@
         <v>90</v>
       </c>
       <c r="K188" s="5">
-        <v>623</v>
+        <v>606.625</v>
       </c>
       <c r="L188" s="5">
         <v>70</v>
@@ -7683,7 +7849,7 @@
         <v>80</v>
       </c>
       <c r="K189" s="7">
-        <v>502.5</v>
+        <v>466.125</v>
       </c>
       <c r="L189" s="7">
         <v>220</v>
@@ -7722,7 +7888,7 @@
         <v>79</v>
       </c>
       <c r="K190" s="5">
-        <v>241</v>
+        <v>214.875</v>
       </c>
       <c r="L190" s="5">
         <v>80</v>
@@ -7761,7 +7927,7 @@
         <v>64</v>
       </c>
       <c r="K191" s="7">
-        <v>91.5</v>
+        <v>83.875</v>
       </c>
       <c r="L191" s="7">
         <v>80</v>
@@ -7800,7 +7966,7 @@
         <v>69</v>
       </c>
       <c r="K192" s="5">
-        <v>33</v>
+        <v>30.875</v>
       </c>
       <c r="L192" s="5">
         <v>70</v>
@@ -7839,7 +8005,7 @@
         <v>57</v>
       </c>
       <c r="K193" s="7">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="L193" s="7">
         <v>60</v>
@@ -7878,7 +8044,7 @@
         <v>70</v>
       </c>
       <c r="K194" s="5">
-        <v>64.5</v>
+        <v>59.875</v>
       </c>
       <c r="L194" s="5">
         <v>70</v>
@@ -7917,7 +8083,7 @@
         <v>67</v>
       </c>
       <c r="K195" s="7">
-        <v>7.5</v>
+        <v>6.625</v>
       </c>
       <c r="L195" s="7">
         <v>110</v>
@@ -7956,7 +8122,7 @@
         <v>73</v>
       </c>
       <c r="K196" s="5">
-        <v>25</v>
+        <v>24.5</v>
       </c>
       <c r="L196" s="5">
         <v>70</v>
@@ -7995,7 +8161,7 @@
         <v>76</v>
       </c>
       <c r="K197" s="7">
-        <v>44.5</v>
+        <v>37.5</v>
       </c>
       <c r="L197" s="7">
         <v>120</v>
@@ -8034,7 +8200,7 @@
         <v>79</v>
       </c>
       <c r="K198" s="5">
-        <v>70</v>
+        <v>73.625</v>
       </c>
       <c r="L198" s="5">
         <v>220</v>
@@ -8073,7 +8239,7 @@
         <v>81</v>
       </c>
       <c r="K199" s="7">
-        <v>480.5</v>
+        <v>501.125</v>
       </c>
       <c r="L199" s="7">
         <v>80</v>
@@ -8112,7 +8278,7 @@
         <v>85</v>
       </c>
       <c r="K200" s="5">
-        <v>355</v>
+        <v>326.875</v>
       </c>
       <c r="L200" s="5">
         <v>200</v>
@@ -8151,7 +8317,7 @@
         <v>88</v>
       </c>
       <c r="K201" s="7">
-        <v>717</v>
+        <v>592.25</v>
       </c>
       <c r="L201" s="7">
         <v>50</v>
@@ -8169,8 +8335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:M201"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
